--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,11 +3843,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,11 +3891,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3904,12 +3904,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,11 +3843,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,11 +3891,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3904,12 +3904,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,11 +3843,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,11 +3891,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3904,12 +3904,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rodrigo Carlos Sanz Lacaux</t>
+          <t>Sociedad CVE Proyecto Cuarenta y Uno SpA</t>
         </is>
       </c>
       <c r="F2" t="n">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Don Chacho SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,11 +3843,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,11 +3891,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3904,12 +3904,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Buganvilia</t>
+          <t>Parque Fotovoltaico Andino Occidente I</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad CVE Proyecto Cuarenta y Uno SpA</t>
+          <t>Parque Fotovoltaico Andino Occidente SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/12/2021</t>
+          <t>17/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154426862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155823525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rodrigo Carlos Sanz Lacaux</t>
+          <t>Sociedad CVE Proyecto Cuarenta y Uno SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>22/12/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154426862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente I</t>
+          <t>Parque Fotovoltaico Buganvilia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente SpA</t>
+          <t>Rodrigo Carlos Sanz Lacaux</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153961128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DIA Mejoramiento del Sistema Riego Predio El Cardo</t>
+          <t>Parque Fotovoltaico Andino Occidente I</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inversiones El Cardo SPA</t>
+          <t>Parque Fotovoltaico Andino Occidente SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>480</v>
+        <v>180000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>17/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150818676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153961128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DIA Proyecto Mejoramiento del Sistema Riego Predio El Cardo</t>
+          <t>DIA Mejoramiento del Sistema Riego Predio El Cardo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149677871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150818676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema Riego Predio El Cardo</t>
+          <t>DIA Proyecto Mejoramiento del Sistema Riego Predio El Cardo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>28/12/2020</t>
+          <t>15/01/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149285968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149677871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Don Chacho</t>
+          <t>Mejoramiento del Sistema Riego Predio El Cardo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Solar Don Chacho SpA</t>
+          <t>Inversiones El Cardo SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>480</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/12/2020</t>
+          <t>28/12/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149357608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149285968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Proyecto Mejoramiento del Sistema Riego Predio El Cardo</t>
+          <t>Parque Fotovoltaico Don Chacho</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inversiones El Cardo SPA</t>
+          <t>Parque Solar Don Chacho SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>480</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>22/12/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149059015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149357608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Don Chacho</t>
+          <t>Proyecto Mejoramiento del Sistema Riego Predio El Cardo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Inversiones El Cardo SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>480</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149089684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149059015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Actualizaciones de Ingeniería y Construcción Obras 7ª, 8ª y 9ª Etapas Peraltamiento Embalse Carén</t>
+          <t>Parque Fotovoltaico Don Chacho</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>473000</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147557521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149089684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NUEVA CENTRAL SOLAR FOTOVOLTAICA MARGARITA</t>
+          <t>Actualizaciones de Ingeniería y Construcción Obras 7ª, 8ª y 9ª Etapas Peraltamiento Embalse Carén</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MARGARITA SOLAR SpA</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>11188</v>
+        <v>473000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/06/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146943669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147557521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cocalán</t>
+          <t>NUEVA CENTRAL SOLAR FOTOVOLTAICA MARGARITA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>MARGARITA SOLAR SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10656</v>
+        <v>11188</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>23/06/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146313016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146943669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nuevo Campamento Carén - División El Teniente</t>
+          <t>Parque Fotovoltaico Cocalán</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25000</v>
+        <v>10656</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>07/04/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146313016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tranque Quilamuta</t>
+          <t>Nuevo Campamento Carén - División El Teniente</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>356</v>
+        <v>25000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>07/04/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145744598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>17/02/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145741045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145744598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Margarita</t>
+          <t>Tranque Quilamuta</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Margarita Solar SpA</t>
+          <t>Sociedad Agrícola El Porvenir S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10080</v>
+        <v>356</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>17/02/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145741045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proyecto Parque Fotovoltaico Albatros</t>
+          <t>Nueva Central Solar Fotovoltaica Margarita</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SOLAR TI VEINTISIETE SpA</t>
+          <t>Margarita Solar SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>120000</v>
+        <v>10080</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/12/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142100937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Margarita</t>
+          <t>Proyecto Parque Fotovoltaico Albatros</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Margarita Solar SpA</t>
+          <t>SOLAR TI VEINTISIETE SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10430</v>
+        <v>120000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/07/2018</t>
+          <t>20/12/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141005688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142100937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Nueva Central Solar Fotovoltaica Margarita</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Margarita Solar SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>10430</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>23/07/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141005688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,21 +1355,21 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,11 +1403,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Optimización Planta de Tratamiento de Aguas Servidas de Las Cabras"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>531</v>
+        <v>37</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21/04/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132339583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Optimización Planta de Tratamiento de Aguas Servidas de Las Cabras"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>531</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/04/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132339583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de la Localidad de Llallauquén</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD LAS CABRAS</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>21/11/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Planta de Tratamiento de Aguas Servidas de la Localidad de Llallauquén</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD LAS CABRAS</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>21/11/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Avance tecnológico al proyecto modernización del sistema de tratamiento Valdebenito.</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/03/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131239521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR FOTOVOLTAICO EL QUEULE</t>
+          <t>Avance tecnológico al proyecto modernización del sistema de tratamiento Valdebenito.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EL QUEULE SPA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>21/03/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131239521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>PARQUE SOLAR FOTOVOLTAICO EL QUEULE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>EL QUEULE SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>77000</v>
+        <v>6750</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1200</v>
+        <v>77000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2050</v>
+        <v>1200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA LOCALIDAD DE LLALLAUQUEN, COMUNA DE LAS CABRAS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GERARDO RIGOBERTO LEIVA PARRA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>780</v>
+        <v>2050</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8335293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD LAS CABRAS</t>
+          <t>GERARDO RIGOBERTO LEIVA PARRA</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8350975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8335293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA LOCALIDAD DE LLALLAUQUEN, COMUNA DE LAS CABRAS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>ILUSTRE MUNICIPALIDAD LAS CABRAS</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2050</v>
+        <v>780</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8350975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Concesión Ruta 66 - Camino de La Fruta</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>400500</v>
+        <v>100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Concesión Ruta 66 - Camino de La Fruta</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>400500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Regularización Sistema de Tratamiento y Disposición en el Suelo de Riles Generados</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S. A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Regularización Sistema de Tratamiento y Disposición en el Suelo de Riles Generados</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/03/2011</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sistema Trtamiento de Riles Disposición en el suelo de RILES Generados</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,20 +2882,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S. A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/03/2011</t>
+          <t>10/03/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5025766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>Sistema Trtamiento de Riles Disposición en el suelo de RILES Generados</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>08/03/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5025766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,20 +2978,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S. A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/10/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4966261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Sistema de Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>20/10/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4966261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Concesion Ruta 66, El Manzano - Las Brisas de Santo Domingo</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>80000</v>
+        <v>230</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4968864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Concesion Ruta 66, El Manzano - Las Brisas de Santo Domingo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>223</v>
+        <v>80000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4968864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3227,21 +3227,21 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,10 +3640,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -3651,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>300000</v>
+        <v>22</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,14 +3688,10 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -3699,25 +3699,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3755,17 +3755,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3795,25 +3795,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3851,17 +3851,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3939,25 +3939,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3987,25 +3987,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4035,15 +4035,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4083,15 +4083,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4131,25 +4131,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cambio de uso de suelo zona de extensión urbana poniente Comuna de las Cabras Las Cabras (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4174,20 +4174,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Las Cabras</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>13796</v>
+        <v>1650</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024480&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Cambio de uso de suelo zona de extensión urbana poniente Comuna de las Cabras Las Cabras (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4222,30 +4222,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ilustre Municipalidad de Las Cabras</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1650</v>
+        <v>13796</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024480&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4275,25 +4275,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4323,15 +4323,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,11 +4375,11 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4419,15 +4419,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>429</v>
+        <v>100</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4467,25 +4467,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4515,25 +4515,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>INMATEC LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INMATEC LTDA</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4571,17 +4571,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4611,15 +4611,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,12 +4644,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Peraltamiento Embalse Carén</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4659,25 +4659,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>492000</v>
+        <v>300</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,12 +4692,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Peraltamiento Embalse Carén</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4707,15 +4707,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>492000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,21 +4759,21 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4803,25 +4803,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,17 +4859,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,25 +4899,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,25 +4947,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamaiento de Riles, Viña Ortiz y Ortiz (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4990,20 +4990,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ortiz y Ortiz Limitada</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>27/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Sistema de Acondicionamaiento de Riles, Viña Ortiz y Ortiz (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5038,20 +5038,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ortiz y Ortiz Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>27/11/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,15 +5091,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,15 +5139,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5195,17 +5195,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,25 +5235,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,25 +5283,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5339,17 +5339,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,25 +5379,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5435,17 +5435,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Las Cabras (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5470,30 +5470,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>886</v>
+        <v>4000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>21/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1298683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Las Cabras (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,20 +5518,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>72</v>
+        <v>886</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>21/02/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1298683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,25 +5571,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>80</v>
+        <v>3517</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5811,11 +5811,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,15 +5907,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Modernización del Sistema de Tratamiento para planteles de Cerdos de la Localidad de Valdebenito- las Cabras (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,20 +5950,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>13792</v>
+        <v>855</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>20/04/2004</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=328310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Alcantarillado y Tratamiento de Aguas Servidas Población María Eliana (e-seia)</t>
+          <t>Modernización del Sistema de Tratamiento para planteles de Cerdos de la Localidad de Valdebenito- las Cabras (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,15 +6003,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Municipalidad Las Cabras Las Cabras</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2019</v>
+        <v>13792</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>06/02/2004</t>
+          <t>20/04/2004</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=259933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=328310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Alcantarillado y Tratamiento de Aguas Servidas Población María Eliana (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,15 +6051,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Municipalidad Las Cabras Las Cabras</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>2019</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>06/02/2004</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=259933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL DEL PLAN REGULADOR DE EL CARMEN (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Las Cabras</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>28/10/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=167388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL LOCALIDAD DE EL CARMEN (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL DEL PLAN REGULADOR DE EL CARMEN (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Jacqueline Vidal Delaigue</t>
+          <t>Ilustre Municipalidad de Las Cabras</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -6155,17 +6155,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>10/09/2003</t>
+          <t>28/10/2003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=167388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Modificacón Zona ZEA Plan Regulador Comunal Las Cabras (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL LOCALIDAD DE EL CARMEN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Municipalidad Las Cabras Las Cabras</t>
+          <t>Jacqueline Vidal Delaigue</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6203,17 +6203,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>26/05/2003</t>
+          <t>10/09/2003</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proyecto Marina Golf Rapel, Comuna de Las Cabras (e-seia)</t>
+          <t>Modificacón Zona ZEA Plan Regulador Comunal Las Cabras (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,15 +6243,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Inmobiliaria Marina Rapel S.A.</t>
+          <t>Municipalidad Las Cabras Las Cabras</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>24/04/2003</t>
+          <t>26/05/2003</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Proyecto Marina Golf Rapel, Comuna de Las Cabras (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6286,20 +6286,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Inmobiliaria Marina Rapel S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>177</v>
+        <v>5000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>24/04/2003</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>700</v>
+        <v>177</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/05/2000</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Lago Rapel</t>
+          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,20 +6382,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>30/05/2000</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Plan Seccional Sector El Cardo - Lago Rapel</t>
+          <t>Plan Regulador Intercomunal Lago Rapel</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>28/12/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Subestación de Transformación de 66/kV El Manzano</t>
+          <t>Plan Seccional Sector El Cardo - Lago Rapel</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1330</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>28/12/1999</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Subestación de Transformación de 66/kV El Manzano</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6526,20 +6526,20 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2500</v>
+        <v>1330</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>25/03/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,43 +6708,91 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>25/03/1998</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Las Cabras</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>Planta Procesadora de Minerales Los Miradores</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>Sociedad Mineral Los Miradores Ltda.</t>
         </is>
       </c>
-      <c r="F133" t="n">
+      <c r="F134" t="n">
         <v>300</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>01/12/1997</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=728&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>Las Cabras</t>
         </is>

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,11 +3891,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3904,12 +3904,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3939,11 +3939,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3952,12 +3952,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,11 +3891,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3904,12 +3904,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3939,11 +3939,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3952,12 +3952,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/05/2022</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,11 +3891,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3904,12 +3904,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3939,11 +3939,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3952,12 +3952,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente I</t>
+          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>180000</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155823525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Buganvilia</t>
+          <t>Parque Fotovoltaico Andino Occidente I</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad CVE Proyecto Cuarenta y Uno SpA</t>
+          <t>Parque Fotovoltaico Andino Occidente SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/12/2021</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154426862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155823525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rodrigo Carlos Sanz Lacaux</t>
+          <t>Sociedad CVE Proyecto Cuarenta y Uno SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>22/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154426862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente I</t>
+          <t>Parque Fotovoltaico Buganvilia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Occidente SpA</t>
+          <t>Rodrigo Carlos Sanz Lacaux</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153961128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DIA Mejoramiento del Sistema Riego Predio El Cardo</t>
+          <t>Parque Fotovoltaico Andino Occidente I</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inversiones El Cardo SPA</t>
+          <t>Parque Fotovoltaico Andino Occidente SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>480</v>
+        <v>180000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18/02/2021</t>
+          <t>17/11/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150818676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153961128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DIA Proyecto Mejoramiento del Sistema Riego Predio El Cardo</t>
+          <t>DIA Mejoramiento del Sistema Riego Predio El Cardo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/01/2021</t>
+          <t>18/02/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149677871&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150818676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema Riego Predio El Cardo</t>
+          <t>DIA Proyecto Mejoramiento del Sistema Riego Predio El Cardo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>28/12/2020</t>
+          <t>15/01/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149285968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149677871&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Don Chacho</t>
+          <t>Mejoramiento del Sistema Riego Predio El Cardo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Parque Solar Don Chacho SpA</t>
+          <t>Inversiones El Cardo SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>480</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/12/2020</t>
+          <t>28/12/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149357608&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149285968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Proyecto Mejoramiento del Sistema Riego Predio El Cardo</t>
+          <t>Parque Fotovoltaico Don Chacho</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inversiones El Cardo SPA</t>
+          <t>Parque Solar Don Chacho SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>480</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>22/12/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149059015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149357608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Don Chacho</t>
+          <t>Proyecto Mejoramiento del Sistema Riego Predio El Cardo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Inversiones El Cardo SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>480</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/11/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149089684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149059015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Actualizaciones de Ingeniería y Construcción Obras 7ª, 8ª y 9ª Etapas Peraltamiento Embalse Carén</t>
+          <t>Parque Fotovoltaico Don Chacho</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>473000</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>20/11/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147557521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149089684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NUEVA CENTRAL SOLAR FOTOVOLTAICA MARGARITA</t>
+          <t>Actualizaciones de Ingeniería y Construcción Obras 7ª, 8ª y 9ª Etapas Peraltamiento Embalse Carén</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MARGARITA SOLAR SpA</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>11188</v>
+        <v>473000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/06/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146943669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147557521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cocalán</t>
+          <t>NUEVA CENTRAL SOLAR FOTOVOLTAICA MARGARITA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>MARGARITA SOLAR SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10656</v>
+        <v>11188</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>23/06/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146313016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146943669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nuevo Campamento Carén - División El Teniente</t>
+          <t>Parque Fotovoltaico Cocalán</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25000</v>
+        <v>10656</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>07/04/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146313016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tranque Quilamuta</t>
+          <t>Nuevo Campamento Carén - División El Teniente</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>356</v>
+        <v>25000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>07/04/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145744598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146082969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17/02/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145741045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145744598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Margarita</t>
+          <t>Tranque Quilamuta</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Margarita Solar SpA</t>
+          <t>Sociedad Agrícola El Porvenir S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10080</v>
+        <v>356</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>17/02/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145741045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Proyecto Parque Fotovoltaico Albatros</t>
+          <t>Nueva Central Solar Fotovoltaica Margarita</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SOLAR TI VEINTISIETE SpA</t>
+          <t>Margarita Solar SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>120000</v>
+        <v>10080</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/12/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142100937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Margarita</t>
+          <t>Proyecto Parque Fotovoltaico Albatros</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Margarita Solar SpA</t>
+          <t>SOLAR TI VEINTISIETE SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10430</v>
+        <v>120000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/07/2018</t>
+          <t>20/12/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141005688&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142100937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Nueva Central Solar Fotovoltaica Margarita</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Margarita Solar SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>10430</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>23/07/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141005688&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,21 +1403,21 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1451,11 +1451,11 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Optimización Planta de Tratamiento de Aguas Servidas de Las Cabras"</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>531</v>
+        <v>37</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21/04/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132339583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>"Optimización Planta de Tratamiento de Aguas Servidas de Las Cabras"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>531</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/04/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132339583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de la Localidad de Llallauquén</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD LAS CABRAS</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/11/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Planta de Tratamiento de Aguas Servidas de la Localidad de Llallauquén</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD LAS CABRAS</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>21/11/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131946650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Avance tecnológico al proyecto modernización del sistema de tratamiento Valdebenito.</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/03/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131239521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PARQUE SOLAR FOTOVOLTAICO EL QUEULE</t>
+          <t>Avance tecnológico al proyecto modernización del sistema de tratamiento Valdebenito.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EL QUEULE SPA</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/01/2016</t>
+          <t>21/03/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131239521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>PARQUE SOLAR FOTOVOLTAICO EL QUEULE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>EL QUEULE SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>21/01/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131101141&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELETRANS II S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>77000</v>
+        <v>6750</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,12 +1864,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Nueva Línea 1x220 kV Alto Melipilla - Rapel y Nueva Línea 2x220 kV Lo Aguirre - Alto Melipilla con un circuito tendido</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ELETRANS II S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1200</v>
+        <v>77000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129753064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2050</v>
+        <v>1200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA LOCALIDAD DE LLALLAUQUEN, COMUNA DE LAS CABRAS</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GERARDO RIGOBERTO LEIVA PARRA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>780</v>
+        <v>2050</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Construcción</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8335293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD LAS CABRAS</t>
+          <t>GERARDO RIGOBERTO LEIVA PARRA</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Construcción</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8350975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8335293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DE LA LOCALIDAD DE LLALLAUQUEN, COMUNA DE LAS CABRAS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>ILUSTRE MUNICIPALIDAD LAS CABRAS</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2050</v>
+        <v>780</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8350975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Concesión Ruta 66 - Camino de La Fruta</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>400500</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Concesión Ruta 66 - Camino de La Fruta</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Concesionaria Ruta de la Fruta S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>400500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6244877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Regularización Sistema de Tratamiento y Disposición en el Suelo de Riles Generados</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S. A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Regularización Sistema de Tratamiento y Disposición en el Suelo de Riles Generados</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5520949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/03/2011</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5470359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sistema Trtamiento de Riles Disposición en el suelo de RILES Generados</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas."</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S. A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/03/2011</t>
+          <t>10/03/2011</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5025766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
+          <t>Sistema Trtamiento de Riles Disposición en el suelo de RILES Generados</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,20 +2978,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/12/2010</t>
+          <t>08/03/2011</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5025766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles</t>
+          <t>"Modificación de la Importación, Transporte de Fumigantes Agrícolas Cloropicrina y 1,3 - Dicloropropeno y de los Procesos de Almacenamiento Primario, Trasvasije y Producción de sus mezclas." .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola El Porvenir S. A.</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/10/2010</t>
+          <t>10/12/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4966261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5141765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Sistema de Tratamiento de Riles</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Sociedad Agrícola El Porvenir S. A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>20/10/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4966261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Concesion Ruta 66, El Manzano - Las Brisas de Santo Domingo</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>80000</v>
+        <v>230</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4968864&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Concesion Ruta 66, El Manzano - Las Brisas de Santo Domingo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>223</v>
+        <v>80000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4968864&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,21 +3275,21 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte de Cianuro de Sodio Sólido desde los puertos de Valparaíso o San Antonio hasta la Mina Florida</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,10 +3688,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -3699,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>300000</v>
+        <v>22</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3732,14 +3736,10 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CONCESIÓN RUTA 66 CAMINO DE LA FRUTA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -3747,25 +3747,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3565282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3803,17 +3803,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,25 +3843,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3899,17 +3899,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3939,11 +3939,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3952,12 +3952,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3995,7 +3995,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4035,25 +4035,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4083,15 +4083,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4131,15 +4131,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4179,25 +4179,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cambio de uso de suelo zona de extensión urbana poniente Comuna de las Cabras Las Cabras (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4222,20 +4222,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Las Cabras</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>13796</v>
+        <v>1650</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024480&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Cambio de uso de suelo zona de extensión urbana poniente Comuna de las Cabras Las Cabras (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4270,30 +4270,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ilustre Municipalidad de Las Cabras</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1650</v>
+        <v>13796</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3024480&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4323,25 +4323,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>1650</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4371,15 +4371,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,11 +4423,11 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4467,15 +4467,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>429</v>
+        <v>100</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4515,25 +4515,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4563,25 +4563,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>INMATEC LTDA</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>05/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Hidrosulfuro de Sodio desde el Puerto de San Antonio a Rancagua (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INMATEC LTDA</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4619,17 +4619,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>05/10/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2422586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4659,15 +4659,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,12 +4692,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Peraltamiento Embalse Carén</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4707,25 +4707,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>492000</v>
+        <v>300</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>30/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,12 +4740,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Peraltamiento Embalse Carén</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4755,15 +4755,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>492000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>30/03/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,21 +4807,21 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4851,25 +4851,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4907,17 +4907,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,25 +4947,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,25 +4995,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamaiento de Riles, Viña Ortiz y Ortiz (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5038,20 +5038,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ortiz y Ortiz Limitada</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>27/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Sistema de Acondicionamaiento de Riles, Viña Ortiz y Ortiz (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5086,20 +5086,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ortiz y Ortiz Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>27/11/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,15 +5139,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,15 +5187,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5243,17 +5243,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,25 +5283,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,25 +5331,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5387,17 +5387,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,25 +5427,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,17 +5483,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Las Cabras (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,30 +5518,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>886</v>
+        <v>4000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>21/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1298683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Las Cabras (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,20 +5566,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>72</v>
+        <v>886</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>21/02/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1298683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3517</v>
+        <v>72</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>80</v>
+        <v>3517</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,15 +5811,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5859,11 +5859,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,15 +5907,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,15 +5955,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modernización del Sistema de Tratamiento para planteles de Cerdos de la Localidad de Valdebenito- las Cabras (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,20 +5998,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Agrícola Super Limitada</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>13792</v>
+        <v>855</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20/04/2004</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=328310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Alcantarillado y Tratamiento de Aguas Servidas Población María Eliana (e-seia)</t>
+          <t>Modernización del Sistema de Tratamiento para planteles de Cerdos de la Localidad de Valdebenito- las Cabras (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,15 +6051,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Municipalidad Las Cabras Las Cabras</t>
+          <t>Agrícola Super Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2019</v>
+        <v>13792</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>06/02/2004</t>
+          <t>20/04/2004</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=259933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=328310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Alcantarillado y Tratamiento de Aguas Servidas Población María Eliana (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,15 +6099,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Municipalidad Las Cabras Las Cabras</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>2019</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>06/02/2004</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=259933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL DEL PLAN REGULADOR DE EL CARMEN (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Las Cabras</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>28/10/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=167388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL LOCALIDAD DE EL CARMEN (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL DEL PLAN REGULADOR DE EL CARMEN (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jacqueline Vidal Delaigue</t>
+          <t>Ilustre Municipalidad de Las Cabras</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6203,17 +6203,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>10/09/2003</t>
+          <t>28/10/2003</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=167388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Modificacón Zona ZEA Plan Regulador Comunal Las Cabras (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL LOCALIDAD DE EL CARMEN (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Municipalidad Las Cabras Las Cabras</t>
+          <t>Jacqueline Vidal Delaigue</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6251,17 +6251,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>26/05/2003</t>
+          <t>10/09/2003</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=146240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto Marina Golf Rapel, Comuna de Las Cabras (e-seia)</t>
+          <t>Modificacón Zona ZEA Plan Regulador Comunal Las Cabras (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Inmobiliaria Marina Rapel S.A.</t>
+          <t>Municipalidad Las Cabras Las Cabras</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>24/04/2003</t>
+          <t>26/05/2003</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cal (e-seia)</t>
+          <t>Proyecto Marina Golf Rapel, Comuna de Las Cabras (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6334,20 +6334,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Portuaria Carranza S.A.</t>
+          <t>Inmobiliaria Marina Rapel S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>177</v>
+        <v>5000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23/01/2003</t>
+          <t>24/04/2003</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
+          <t>Almacenaje y Transporte de Cal (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>Portuaria Carranza S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>700</v>
+        <v>177</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/05/2000</t>
+          <t>23/01/2003</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Lago Rapel</t>
+          <t>Almacenamiento Mezcla Transvase y Transporte de Sustancias Agroquímicas para la Fumigación de Suelos en la Comuna de Rengo VI Región</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,20 +6430,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>30/05/2000</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Plan Seccional Sector El Cardo - Lago Rapel</t>
+          <t>Plan Regulador Intercomunal Lago Rapel</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>28/12/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Subestación de Transformación de 66/kV El Manzano</t>
+          <t>Plan Seccional Sector El Cardo - Lago Rapel</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1330</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>28/12/1999</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Subestación de Transformación de 66/kV El Manzano</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6574,20 +6574,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2500</v>
+        <v>1330</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>25/03/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta de Carga Distribuida</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=877&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Compartida</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,43 +6756,91 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>Transporte de Ácido Sulfúrico Excedentes Fundición Caletones-Fase I Ruta Única</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>CODELCO CHILE DIVISIÓN EL TENIENTE</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>25/03/1998</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Las Cabras</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
           <t>Planta Procesadora de Minerales Los Miradores</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>Sociedad Mineral Los Miradores Ltda.</t>
         </is>
       </c>
-      <c r="F134" t="n">
+      <c r="F135" t="n">
         <v>300</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>01/12/1997</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=728&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>Las Cabras</t>
         </is>

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3939,11 +3939,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3952,12 +3952,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3987,11 +3987,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4000,12 +4000,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3939,11 +3939,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3952,12 +3952,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3987,11 +3987,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4000,12 +4000,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">

--- a/data/Las Cabras.xlsx
+++ b/data/Las Cabras.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
